--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4745" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="184">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -734,6 +734,9 @@
   </si>
   <si>
     <t xml:space="preserve">Capteur 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2030,9 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>183</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="K6" s="7" t="s">

--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4802" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8733" uniqueCount="244">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -737,6 +737,318 @@
   </si>
   <si>
     <t xml:space="preserve">0123456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C4
+Code 2 : 5C68B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : A14C
+Code 2 : 5C68
+Code 3 : 4489
+Code 4 : 8796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789XABCDEF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId15</t>
   </si>
 </sst>
 </file>
@@ -2031,7 +2343,7 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2299,7 +2611,159 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11"/>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>235</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8733" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11598" uniqueCount="280">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1049,6 +1049,114 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capteur 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capteur 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId35</t>
   </si>
 </sst>
 </file>
@@ -2579,24 +2687,24 @@
     </row>
     <row r="9">
       <c r="B9" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -2608,15 +2716,15 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s">
-        <v>178</v>
+        <v>234</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
         <v>42</v>
@@ -2625,12 +2733,12 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C12" t="s">
         <v>108</v>
@@ -2647,7 +2755,7 @@
     </row>
     <row r="13">
       <c r="B13" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C13" t="s">
         <v>108</v>
@@ -2664,7 +2772,7 @@
     </row>
     <row r="14">
       <c r="B14" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C14" t="s">
         <v>108</v>
@@ -2681,7 +2789,7 @@
     </row>
     <row r="15">
       <c r="B15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
         <v>108</v>
@@ -2698,7 +2806,7 @@
     </row>
     <row r="16">
       <c r="B16" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C16" t="s">
         <v>108</v>
@@ -2715,7 +2823,7 @@
     </row>
     <row r="17">
       <c r="B17" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C17" t="s">
         <v>108</v>
@@ -2732,7 +2840,7 @@
     </row>
     <row r="18">
       <c r="B18" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C18" t="s">
         <v>108</v>
@@ -2744,12 +2852,12 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
@@ -2761,9 +2869,299 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>235</v>
-      </c>
-    </row>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>254</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11598" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24852" uniqueCount="336">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1157,6 +1157,402 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 3 :
+Code 3 :
+Code 3 :
+Code 3 :
+Code 3 :
+Code 3 :
+Code 3 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typography_00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verdanaz.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code 1 : AB45
+Code 2 : C5D6
+Code 4 :
+Code 5 :
+Code 6 :
+Code 7 :
+Code 8 :
+Code 9 :
+Code 10 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut : &lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789XABCDEFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789XABCDEFTIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;activ&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut :&lt;value&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tout 
+désactiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tout 
+désactiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tout éteindre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789XABCDEFTINM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789XABCDEFTINMXR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIIIIIIIIIIIIIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIIIIIII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIIIII</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2847,7 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2470,6 +2866,24 @@
       <c r="O6" s="10"/>
     </row>
     <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
       <c r="K7" s="7" t="s">
         <v>7</v>
       </c>
@@ -3161,7 +3575,75 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37"/>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>279</v>
+      </c>
+      <c r="C37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>324</v>
+      </c>
+      <c r="C40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/assets/texts/texts.xlsx
+++ b/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24852" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25092" uniqueCount="336">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -3623,7 +3623,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40">
